--- a/02-lab/output/excel/steepest_descent_method_1_1.xlsx
+++ b/02-lab/output/excel/steepest_descent_method_1_1.xlsx
@@ -53,7 +53,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -61,6 +61,7 @@
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="true"/>
     <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -70,6 +71,9 @@
       <c r="B1" s="0">
         <v>1</v>
       </c>
+      <c r="C1" s="0">
+        <v>-1</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
@@ -77,6 +81,9 @@
       </c>
       <c r="B2" s="0">
         <v>0.33333011837477389</v>
+      </c>
+      <c r="C2" s="0">
+        <v>2.6666795265009045</v>
       </c>
     </row>
     <row r="3">
@@ -86,6 +93,9 @@
       <c r="B3" s="0">
         <v>0.33333188657438717</v>
       </c>
+      <c r="C3" s="0">
+        <v>4.3999737722116592</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>

--- a/02-lab/output/excel/steepest_descent_method_1_1.xlsx
+++ b/02-lab/output/excel/steepest_descent_method_1_1.xlsx
@@ -61,7 +61,7 @@
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="true"/>
     <col min="2" max="2" width="12.7109375" customWidth="true"/>
-    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -77,24 +77,24 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.33333011837477389</v>
+        <v>0.33332470713827334</v>
       </c>
       <c r="B2" s="0">
-        <v>0.33333011837477389</v>
+        <v>0.33332470713827334</v>
       </c>
       <c r="C2" s="0">
-        <v>2.6666795265009045</v>
+        <v>0.9428212408641089</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.33333188657438717</v>
+        <v>0.33335359693971173</v>
       </c>
       <c r="B3" s="0">
-        <v>0.33333188657438717</v>
+        <v>0.33335359693971173</v>
       </c>
       <c r="C3" s="0">
-        <v>4.3999737722116592</v>
+        <v>4.0856349008447363e-05</v>
       </c>
     </row>
   </sheetData>

--- a/02-lab/output/excel/steepest_descent_method_1_1.xlsx
+++ b/02-lab/output/excel/steepest_descent_method_1_1.xlsx
@@ -53,7 +53,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -77,24 +77,35 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.33332470713827334</v>
+        <v>0.64646998174705406</v>
       </c>
       <c r="B2" s="0">
-        <v>0.33332470713827334</v>
+        <v>0.64646998174705406</v>
       </c>
       <c r="C2" s="0">
-        <v>0.9428212408641089</v>
+        <v>0.49996694651932405</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.33335359693971173</v>
+        <v>0.33332129715977532</v>
       </c>
       <c r="B3" s="0">
-        <v>0.33335359693971173</v>
+        <v>0.33332129715977532</v>
       </c>
       <c r="C3" s="0">
-        <v>4.0856349008447363e-05</v>
+        <v>0.44285911678262413</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.33335911440082228</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0.33335911440082228</v>
+      </c>
+      <c r="C4" s="0">
+        <v>5.348165518017163e-05</v>
       </c>
     </row>
   </sheetData>

--- a/02-lab/output/excel/steepest_descent_method_1_1.xlsx
+++ b/02-lab/output/excel/steepest_descent_method_1_1.xlsx
@@ -77,35 +77,35 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.64646998174705406</v>
+        <v>0.43433768689191266</v>
       </c>
       <c r="B2" s="0">
-        <v>0.64646998174705406</v>
+        <v>0.43433768689191266</v>
       </c>
       <c r="C2" s="0">
-        <v>0.49996694651932405</v>
+        <v>0.79996731492079332</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.33332129715977532</v>
+        <v>0.33333301407769611</v>
       </c>
       <c r="B3" s="0">
-        <v>0.33332129715977532</v>
+        <v>0.33333301407769611</v>
       </c>
       <c r="C3" s="0">
-        <v>0.44285911678262413</v>
+        <v>0.1428421781569221</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.33335911440082228</v>
+        <v>0.33337040982222055</v>
       </c>
       <c r="B4" s="0">
-        <v>0.33335911440082228</v>
+        <v>0.33337040982222055</v>
       </c>
       <c r="C4" s="0">
-        <v>5.348165518017163e-05</v>
+        <v>5.2885569081516712e-05</v>
       </c>
     </row>
   </sheetData>

--- a/02-lab/output/excel/steepest_descent_method_1_1.xlsx
+++ b/02-lab/output/excel/steepest_descent_method_1_1.xlsx
@@ -53,7 +53,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -61,7 +61,10 @@
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="true"/>
     <col min="2" max="2" width="12.7109375" customWidth="true"/>
-    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="14.42578125" customWidth="true"/>
+    <col min="4" max="4" width="16.28515625" customWidth="true"/>
+    <col min="5" max="5" width="16.28515625" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -72,6 +75,15 @@
         <v>1</v>
       </c>
       <c r="C1" s="0">
+        <v>0.125</v>
+      </c>
+      <c r="D1" s="0">
+        <v>0.25</v>
+      </c>
+      <c r="E1" s="0">
+        <v>0.25</v>
+      </c>
+      <c r="F1" s="0">
         <v>-1</v>
       </c>
     </row>
@@ -83,6 +95,15 @@
         <v>0.43433768689191266</v>
       </c>
       <c r="C2" s="0">
+        <v>-0.0030967861404822723</v>
+      </c>
+      <c r="D2" s="0">
+        <v>0.016451248983992361</v>
+      </c>
+      <c r="E2" s="0">
+        <v>0.016451248983992361</v>
+      </c>
+      <c r="F2" s="0">
         <v>0.79996731492079332</v>
       </c>
     </row>
@@ -94,6 +115,15 @@
         <v>0.33333301407769611</v>
       </c>
       <c r="C3" s="0">
+        <v>-0.0046296296296168896</v>
+      </c>
+      <c r="D3" s="0">
+        <v>-3.9906916431131645e-08</v>
+      </c>
+      <c r="E3" s="0">
+        <v>-3.9906916431131645e-08</v>
+      </c>
+      <c r="F3" s="0">
         <v>0.1428421781569221</v>
       </c>
     </row>
@@ -105,6 +135,15 @@
         <v>0.33337040982222055</v>
       </c>
       <c r="C4" s="0">
+        <v>-0.0046296294577836336</v>
+      </c>
+      <c r="D4" s="0">
+        <v>4.6350766106650898e-06</v>
+      </c>
+      <c r="E4" s="0">
+        <v>4.6350766106650898e-06</v>
+      </c>
+      <c r="F4" s="0">
         <v>5.2885569081516712e-05</v>
       </c>
     </row>
